--- a/Aechivos relacionados/PREVIO.xlsx
+++ b/Aechivos relacionados/PREVIO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Articulo</t>
   </si>
@@ -76,13 +76,118 @@
   </si>
   <si>
     <t xml:space="preserve">BULTO </t>
+  </si>
+  <si>
+    <t>TITULOS PANTALLAS</t>
+  </si>
+  <si>
+    <t>PERFILES</t>
+  </si>
+  <si>
+    <t>FUNCIONALIDADES</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>VENDEDOR EXTERNO</t>
+  </si>
+  <si>
+    <t>VENDEDOR INTERNO</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>ABM CLASES</t>
+  </si>
+  <si>
+    <t>PEDIDOS</t>
+  </si>
+  <si>
+    <t>ADMINISTRAR FLETES</t>
+  </si>
+  <si>
+    <t>ADMINISTRAR</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>MARCAS</t>
+  </si>
+  <si>
+    <t>PRESENTACION</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>ID CLIENTE</t>
+  </si>
+  <si>
+    <t>CARGAR VENTA DESDE PERFIL VENDEDOR</t>
+  </si>
+  <si>
+    <t>INTERNO/EXTERNO</t>
+  </si>
+  <si>
+    <t>PASAR LO COMPRADO</t>
+  </si>
+  <si>
+    <t>PASAR LO VENDIDO</t>
+  </si>
+  <si>
+    <t>ASIGNAR RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>ADMINISTRAR ABM</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>VENDEDORES</t>
+  </si>
+  <si>
+    <t>PEDIDO</t>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>BAJA LOGICA</t>
+  </si>
+  <si>
+    <t>LOTES DE PRODUCTOS</t>
+  </si>
+  <si>
+    <t>CARGAR PEDIDOS</t>
+  </si>
+  <si>
+    <t>ABM GENERAL</t>
+  </si>
+  <si>
+    <t>NUEVO CLIENTE</t>
+  </si>
+  <si>
+    <t>PRODUCTOS CANTIDAD</t>
+  </si>
+  <si>
+    <t>ALTA NUEVO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +195,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,19 +544,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -440,7 +574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -448,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -459,22 +593,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -488,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>19</v>
       </c>
@@ -496,7 +630,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -507,23 +641,184 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="E29" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
